--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_8_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_8_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-168067.3439277206</v>
+        <v>-170271.6430981329</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7167898.673599431</v>
+        <v>7167898.673599426</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>297.4233572616608</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>414.0013860800026</v>
+        <v>14.00138608000264</v>
       </c>
       <c r="H2" t="n">
-        <v>326.1473367307173</v>
+        <v>322.1855054999229</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.3991836568392</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2415447930259</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>140.6528674744874</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -756,7 +756,7 @@
         <v>105.5108027722022</v>
       </c>
       <c r="I3" t="n">
-        <v>65.42368303547045</v>
+        <v>65.4236830354705</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,19 +783,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>56.92712363104922</v>
+        <v>56.92712363104931</v>
       </c>
       <c r="S3" t="n">
-        <v>158.7499937190575</v>
+        <v>158.7499937190576</v>
       </c>
       <c r="T3" t="n">
         <v>197.3582139329295</v>
       </c>
       <c r="U3" t="n">
-        <v>133.7478542216788</v>
+        <v>225.8955738966131</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147.0498853466287</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2871889135903</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>75.52352473171312</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,19 +899,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>233.4091589669316</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>134.4744101939906</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,31 +1051,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>57.68157701938528</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>17.45409840511801</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>244.8695148436732</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>85.13711862193124</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,16 +1303,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>74.04980671952985</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>51.05460352320711</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>334.2870202181634</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>194.8940967195799</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>67.33742371513277</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1585,13 +1585,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>192.3723562192125</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1625,7 +1625,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174134</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1765,19 +1765,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>84.69526338627226</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1825,10 +1825,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>165.1004519462845</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>85.65576091831579</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2062,13 +2062,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>174.9526855012331</v>
       </c>
     </row>
     <row r="20">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2293,19 +2293,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>270.0697021486467</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>130.8332218431063</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>114.4746605491553</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>263.6918888957906</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.59751212389924</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>13.89072837997108</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2950,10 +2950,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>68.74868616823339</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,19 +2995,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>234.6606904957399</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3047,7 +3047,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>74.75769145492359</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>274.5932299693704</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>349.0376875711024</v>
+        <v>349.0376875711023</v>
       </c>
       <c r="C35" t="n">
         <v>331.5767376786293</v>
@@ -3272,7 +3272,7 @@
         <v>320.9868875283047</v>
       </c>
       <c r="E35" t="n">
-        <v>348.2342159798836</v>
+        <v>348.2342159798835</v>
       </c>
       <c r="F35" t="n">
         <v>373.1798916493332</v>
@@ -3284,7 +3284,7 @@
         <v>260.9116102949422</v>
       </c>
       <c r="I35" t="n">
-        <v>7.880775680547757</v>
+        <v>7.880775680547714</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>75.49160769579763</v>
+        <v>75.49160769579758</v>
       </c>
       <c r="T35" t="n">
         <v>170.2218160472419</v>
       </c>
       <c r="U35" t="n">
-        <v>217.2990178665238</v>
+        <v>217.2990178665237</v>
       </c>
       <c r="V35" t="n">
-        <v>294.0561043777567</v>
+        <v>294.0561043777566</v>
       </c>
       <c r="W35" t="n">
-        <v>315.5448146250348</v>
+        <v>315.5448146250347</v>
       </c>
       <c r="X35" t="n">
         <v>336.0349465860908</v>
       </c>
       <c r="Y35" t="n">
-        <v>352.5417845636754</v>
+        <v>352.5417845636753</v>
       </c>
     </row>
     <row r="36">
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>146.1358260895591</v>
+        <v>146.135826089559</v>
       </c>
       <c r="C37" t="n">
         <v>133.5506670062496</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>46.84681381611531</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>112.7378085541909</v>
       </c>
       <c r="F37" t="n">
-        <v>22.80045479960694</v>
+        <v>111.724893930553</v>
       </c>
       <c r="G37" t="n">
         <v>132.32965416665</v>
       </c>
       <c r="H37" t="n">
-        <v>111.0588608219426</v>
+        <v>111.0588608219425</v>
       </c>
       <c r="I37" t="n">
-        <v>62.6562663174599</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>55.23599857766914</v>
+        <v>55.23599857766908</v>
       </c>
       <c r="S37" t="n">
-        <v>156.0728712390637</v>
+        <v>156.0728712390636</v>
       </c>
       <c r="T37" t="n">
-        <v>185.852795183791</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>252.5156841132347</v>
+        <v>252.5156841132346</v>
       </c>
       <c r="V37" t="n">
-        <v>218.4414892314498</v>
+        <v>218.4414892314497</v>
       </c>
       <c r="W37" t="n">
-        <v>252.8268442442128</v>
+        <v>252.8268442442127</v>
       </c>
       <c r="X37" t="n">
         <v>192.0135012966589</v>
       </c>
       <c r="Y37" t="n">
-        <v>184.8884992597166</v>
+        <v>184.8884992597165</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>67.61083201524987</v>
+        <v>67.61083201524988</v>
       </c>
       <c r="T38" t="n">
         <v>162.3410403666942</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,13 +3658,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>64.33297127975604</v>
+        <v>138.2550504090113</v>
       </c>
       <c r="C40" t="n">
-        <v>125.6698913257019</v>
+        <v>104.01086480482</v>
       </c>
       <c r="D40" t="n">
-        <v>107.0385432452864</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>104.8570328736432</v>
@@ -3679,7 +3679,7 @@
         <v>103.1780851413948</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>54.77549063691215</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>47.35522289712137</v>
+        <v>47.35522289712139</v>
       </c>
       <c r="S40" t="n">
         <v>148.1920955585159</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>341.1569118905547</v>
+        <v>341.1569118905546</v>
       </c>
       <c r="C41" t="n">
-        <v>323.6959619980817</v>
+        <v>323.6959619980816</v>
       </c>
       <c r="D41" t="n">
-        <v>313.1061118477571</v>
+        <v>313.106111847757</v>
       </c>
       <c r="E41" t="n">
-        <v>340.3534402993359</v>
+        <v>340.3534402993358</v>
       </c>
       <c r="F41" t="n">
         <v>365.2991159687855</v>
       </c>
       <c r="G41" t="n">
-        <v>369.3447958805276</v>
+        <v>369.3447958805275</v>
       </c>
       <c r="H41" t="n">
-        <v>253.0308346143946</v>
+        <v>253.0308346143945</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>67.61083201524991</v>
+        <v>67.61083201524987</v>
       </c>
       <c r="T41" t="n">
         <v>162.3410403666942</v>
       </c>
       <c r="U41" t="n">
-        <v>209.4182421859761</v>
+        <v>209.418242185976</v>
       </c>
       <c r="V41" t="n">
-        <v>286.175328697209</v>
+        <v>286.1753286972092</v>
       </c>
       <c r="W41" t="n">
         <v>307.6640389444871</v>
@@ -3806,7 +3806,7 @@
         <v>328.1541709055431</v>
       </c>
       <c r="Y41" t="n">
-        <v>344.6610088831277</v>
+        <v>344.6610088831276</v>
       </c>
     </row>
     <row r="42">
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247759</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>138.2550504090114</v>
+        <v>138.2550504090113</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>125.6698913257019</v>
       </c>
       <c r="D43" t="n">
         <v>107.0385432452864</v>
@@ -3910,13 +3910,13 @@
         <v>103.8441182500053</v>
       </c>
       <c r="G43" t="n">
-        <v>121.4212000456349</v>
+        <v>124.4488784861023</v>
       </c>
       <c r="H43" t="n">
-        <v>103.1780851413949</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>54.77549063691217</v>
+        <v>29.25600601213794</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>47.35522289712141</v>
+        <v>47.35522289712138</v>
       </c>
       <c r="S43" t="n">
-        <v>148.192095558516</v>
+        <v>148.1920955585159</v>
       </c>
       <c r="T43" t="n">
-        <v>177.9720195032433</v>
+        <v>177.9720195032432</v>
       </c>
       <c r="U43" t="n">
-        <v>244.634908432687</v>
+        <v>244.6349084326869</v>
       </c>
       <c r="V43" t="n">
         <v>210.5607135509021</v>
@@ -3964,7 +3964,7 @@
         <v>184.1327256161112</v>
       </c>
       <c r="Y43" t="n">
-        <v>177.0077235791689</v>
+        <v>177.0077235791688</v>
       </c>
     </row>
     <row r="44">
@@ -3974,22 +3974,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>341.1569118905547</v>
+        <v>341.1569118905546</v>
       </c>
       <c r="C44" t="n">
-        <v>323.6959619980817</v>
+        <v>323.6959619980815</v>
       </c>
       <c r="D44" t="n">
-        <v>313.1061118477571</v>
+        <v>313.106111847757</v>
       </c>
       <c r="E44" t="n">
-        <v>340.3534402993359</v>
+        <v>340.3534402993358</v>
       </c>
       <c r="F44" t="n">
         <v>365.2991159687855</v>
       </c>
       <c r="G44" t="n">
-        <v>369.3447958805276</v>
+        <v>369.3447958805275</v>
       </c>
       <c r="H44" t="n">
         <v>253.0308346143945</v>
@@ -4025,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>67.61083201524991</v>
+        <v>67.61083201524985</v>
       </c>
       <c r="T44" t="n">
         <v>162.3410403666942</v>
       </c>
       <c r="U44" t="n">
-        <v>209.4182421859761</v>
+        <v>209.418242185976</v>
       </c>
       <c r="V44" t="n">
-        <v>286.175328697209</v>
+        <v>286.1753286972089</v>
       </c>
       <c r="W44" t="n">
         <v>307.6640389444871</v>
@@ -4043,7 +4043,7 @@
         <v>328.1541709055431</v>
       </c>
       <c r="Y44" t="n">
-        <v>344.6610088831277</v>
+        <v>344.6610088831276</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247759</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>138.2550504090114</v>
+        <v>138.2550504090113</v>
       </c>
       <c r="C46" t="n">
         <v>125.6698913257019</v>
@@ -4144,16 +4144,16 @@
         <v>104.8570328736432</v>
       </c>
       <c r="F46" t="n">
-        <v>29.92203912074786</v>
+        <v>103.8441182500053</v>
       </c>
       <c r="G46" t="n">
-        <v>124.4488784861023</v>
+        <v>124.4488784861022</v>
       </c>
       <c r="H46" t="n">
-        <v>103.1780851413949</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>54.77549063691212</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>47.35522289712141</v>
+        <v>47.35522289712137</v>
       </c>
       <c r="S46" t="n">
-        <v>148.192095558516</v>
+        <v>148.1920955585159</v>
       </c>
       <c r="T46" t="n">
-        <v>177.9720195032433</v>
+        <v>177.9720195032432</v>
       </c>
       <c r="U46" t="n">
-        <v>244.634908432687</v>
+        <v>244.6349084326869</v>
       </c>
       <c r="V46" t="n">
-        <v>210.5607135509021</v>
+        <v>210.560713550902</v>
       </c>
       <c r="W46" t="n">
-        <v>244.9460685636651</v>
+        <v>219.4265839388916</v>
       </c>
       <c r="X46" t="n">
         <v>184.1327256161112</v>
       </c>
       <c r="Y46" t="n">
-        <v>177.0077235791689</v>
+        <v>177.0077235791688</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1096.974148346997</v>
+        <v>1508.46622987549</v>
       </c>
       <c r="C2" t="n">
-        <v>1096.974148346997</v>
+        <v>1139.503712935079</v>
       </c>
       <c r="D2" t="n">
-        <v>1096.974148346997</v>
+        <v>781.2380143283283</v>
       </c>
       <c r="E2" t="n">
-        <v>1096.974148346997</v>
+        <v>395.449761730084</v>
       </c>
       <c r="F2" t="n">
-        <v>796.5465147493599</v>
+        <v>388.5042609808806</v>
       </c>
       <c r="G2" t="n">
-        <v>378.3632964867309</v>
+        <v>374.3614467586557</v>
       </c>
       <c r="H2" t="n">
-        <v>48.92154221327905</v>
+        <v>48.92154221327898</v>
       </c>
       <c r="I2" t="n">
-        <v>48.92154221327905</v>
+        <v>48.92154221327898</v>
       </c>
       <c r="J2" t="n">
-        <v>146.4378163561069</v>
+        <v>146.4378163561066</v>
       </c>
       <c r="K2" t="n">
-        <v>413.3342370575871</v>
+        <v>413.3342370575863</v>
       </c>
       <c r="L2" t="n">
-        <v>796.7194750759079</v>
+        <v>796.7194750759068</v>
       </c>
       <c r="M2" t="n">
-        <v>1239.915968271165</v>
+        <v>1239.915968271163</v>
       </c>
       <c r="N2" t="n">
-        <v>1675.651846528177</v>
+        <v>1675.651846528174</v>
       </c>
       <c r="O2" t="n">
-        <v>2041.91724252083</v>
+        <v>2041.917242520827</v>
       </c>
       <c r="P2" t="n">
-        <v>2316.841901243603</v>
+        <v>2316.8419012436</v>
       </c>
       <c r="Q2" t="n">
-        <v>2446.077110663953</v>
+        <v>2446.077110663949</v>
       </c>
       <c r="R2" t="n">
-        <v>2446.077110663953</v>
+        <v>2446.077110663949</v>
       </c>
       <c r="S2" t="n">
-        <v>2446.077110663953</v>
+        <v>2446.077110663949</v>
       </c>
       <c r="T2" t="n">
-        <v>2226.481975657045</v>
+        <v>2446.077110663949</v>
       </c>
       <c r="U2" t="n">
-        <v>2226.481975657045</v>
+        <v>2192.297772489175</v>
       </c>
       <c r="V2" t="n">
-        <v>2226.481975657045</v>
+        <v>1861.234885145604</v>
       </c>
       <c r="W2" t="n">
-        <v>1873.71332038693</v>
+        <v>1508.46622987549</v>
       </c>
       <c r="X2" t="n">
-        <v>1873.71332038693</v>
+        <v>1508.46622987549</v>
       </c>
       <c r="Y2" t="n">
-        <v>1483.573988411119</v>
+        <v>1508.46622987549</v>
       </c>
     </row>
     <row r="3">
@@ -4404,55 +4404,55 @@
         <v>115.0060705319361</v>
       </c>
       <c r="I3" t="n">
-        <v>48.92154221327905</v>
+        <v>48.92154221327898</v>
       </c>
       <c r="J3" t="n">
-        <v>83.94607947450038</v>
+        <v>48.92154221327898</v>
       </c>
       <c r="K3" t="n">
-        <v>320.6139544928342</v>
+        <v>285.5894172316126</v>
       </c>
       <c r="L3" t="n">
-        <v>700.2475153716235</v>
+        <v>665.2229781104015</v>
       </c>
       <c r="M3" t="n">
-        <v>1195.241196399217</v>
+        <v>1160.216659137995</v>
       </c>
       <c r="N3" t="n">
-        <v>1719.042900651401</v>
+        <v>1684.018363390178</v>
       </c>
       <c r="O3" t="n">
-        <v>2131.803448821846</v>
+        <v>2096.778911560623</v>
       </c>
       <c r="P3" t="n">
-        <v>2446.077110663953</v>
+        <v>2411.05257340273</v>
       </c>
       <c r="Q3" t="n">
-        <v>2446.077110663953</v>
+        <v>2446.077110663949</v>
       </c>
       <c r="R3" t="n">
-        <v>2388.574965582085</v>
+        <v>2388.574965582081</v>
       </c>
       <c r="S3" t="n">
-        <v>2228.221436572936</v>
+        <v>2228.221436572932</v>
       </c>
       <c r="T3" t="n">
-        <v>2028.869705327552</v>
+        <v>2028.869705327549</v>
       </c>
       <c r="U3" t="n">
-        <v>1893.770862679392</v>
+        <v>1800.692357957232</v>
       </c>
       <c r="V3" t="n">
-        <v>1658.618754447649</v>
+        <v>1800.692357957232</v>
       </c>
       <c r="W3" t="n">
-        <v>1404.381397719448</v>
+        <v>1546.455001229031</v>
       </c>
       <c r="X3" t="n">
-        <v>1196.529897513915</v>
+        <v>1338.603501023498</v>
       </c>
       <c r="Y3" t="n">
-        <v>988.7695987489609</v>
+        <v>1130.843202258544</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>493.8412227059183</v>
+        <v>48.92154221327898</v>
       </c>
       <c r="C4" t="n">
-        <v>493.8412227059183</v>
+        <v>48.92154221327898</v>
       </c>
       <c r="D4" t="n">
-        <v>343.7245832935826</v>
+        <v>48.92154221327898</v>
       </c>
       <c r="E4" t="n">
-        <v>195.8114897111894</v>
+        <v>48.92154221327898</v>
       </c>
       <c r="F4" t="n">
-        <v>48.92154221327905</v>
+        <v>48.92154221327898</v>
       </c>
       <c r="G4" t="n">
-        <v>48.92154221327905</v>
+        <v>48.92154221327898</v>
       </c>
       <c r="H4" t="n">
-        <v>48.92154221327905</v>
+        <v>48.92154221327898</v>
       </c>
       <c r="I4" t="n">
-        <v>48.92154221327905</v>
+        <v>48.92154221327898</v>
       </c>
       <c r="J4" t="n">
-        <v>48.92154221327905</v>
+        <v>48.92154221327898</v>
       </c>
       <c r="K4" t="n">
-        <v>94.01668725009945</v>
+        <v>94.01668725009924</v>
       </c>
       <c r="L4" t="n">
-        <v>207.2493817851555</v>
+        <v>207.2493817851551</v>
       </c>
       <c r="M4" t="n">
-        <v>337.0265048715917</v>
+        <v>337.0265048715911</v>
       </c>
       <c r="N4" t="n">
-        <v>469.1524344590182</v>
+        <v>469.1524344590174</v>
       </c>
       <c r="O4" t="n">
-        <v>575.1758201199129</v>
+        <v>575.175820119912</v>
       </c>
       <c r="P4" t="n">
-        <v>642.3764604297857</v>
+        <v>642.3764604297846</v>
       </c>
       <c r="Q4" t="n">
-        <v>642.3764604297857</v>
+        <v>642.3764604297846</v>
       </c>
       <c r="R4" t="n">
-        <v>642.3764604297857</v>
+        <v>642.3764604297846</v>
       </c>
       <c r="S4" t="n">
-        <v>642.3764604297857</v>
+        <v>642.3764604297846</v>
       </c>
       <c r="T4" t="n">
-        <v>642.3764604297857</v>
+        <v>642.3764604297846</v>
       </c>
       <c r="U4" t="n">
-        <v>642.3764604297857</v>
+        <v>353.1974817291884</v>
       </c>
       <c r="V4" t="n">
-        <v>642.3764604297857</v>
+        <v>276.9110931112963</v>
       </c>
       <c r="W4" t="n">
-        <v>642.3764604297857</v>
+        <v>276.9110931112963</v>
       </c>
       <c r="X4" t="n">
-        <v>642.3764604297857</v>
+        <v>48.92154221327898</v>
       </c>
       <c r="Y4" t="n">
-        <v>642.3764604297857</v>
+        <v>48.92154221327898</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>777.3160057778002</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="C5" t="n">
-        <v>777.3160057778002</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="D5" t="n">
-        <v>777.3160057778002</v>
+        <v>1557.979660884627</v>
       </c>
       <c r="E5" t="n">
-        <v>777.3160057778002</v>
+        <v>1172.191408286383</v>
       </c>
       <c r="F5" t="n">
-        <v>770.3705050285968</v>
+        <v>761.2055034967755</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>343.2416953949623</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4571,7 +4571,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.752638628377</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>1893.689751284806</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W5" t="n">
-        <v>1540.921096014692</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X5" t="n">
-        <v>1167.455337753612</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="Y5" t="n">
-        <v>777.3160057778002</v>
+        <v>1916.245359491378</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4644,25 +4644,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>380.6911546495019</v>
+        <v>532.9350040648279</v>
       </c>
       <c r="C7" t="n">
-        <v>380.6911546495019</v>
+        <v>532.9350040648279</v>
       </c>
       <c r="D7" t="n">
-        <v>380.6911546495019</v>
+        <v>382.8183646524922</v>
       </c>
       <c r="E7" t="n">
-        <v>380.6911546495019</v>
+        <v>382.8183646524922</v>
       </c>
       <c r="F7" t="n">
-        <v>380.6911546495019</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>532.9350040648279</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>532.9350040648279</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610022</v>
+        <v>532.9350040648279</v>
       </c>
       <c r="V7" t="n">
-        <v>438.9553738610022</v>
+        <v>532.9350040648279</v>
       </c>
       <c r="W7" t="n">
-        <v>438.9553738610022</v>
+        <v>532.9350040648279</v>
       </c>
       <c r="X7" t="n">
-        <v>438.9553738610022</v>
+        <v>532.9350040648279</v>
       </c>
       <c r="Y7" t="n">
-        <v>438.9553738610022</v>
+        <v>532.9350040648279</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1964.838184214438</v>
+        <v>837.1179892781315</v>
       </c>
       <c r="C8" t="n">
-        <v>1595.875667274026</v>
+        <v>837.1179892781315</v>
       </c>
       <c r="D8" t="n">
-        <v>1595.875667274026</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861747</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862885</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500977</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2212.181128500977</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>2212.181128500977</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X8" t="n">
-        <v>2212.181128500977</v>
+        <v>1223.717829342253</v>
       </c>
       <c r="Y8" t="n">
-        <v>2212.181128500977</v>
+        <v>1223.717829342253</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4887,19 +4887,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4920,10 +4920,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>494.9102127870964</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="C10" t="n">
-        <v>494.9102127870964</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="D10" t="n">
-        <v>494.9102127870964</v>
+        <v>321.2872383163221</v>
       </c>
       <c r="E10" t="n">
-        <v>494.9102127870964</v>
+        <v>321.2872383163221</v>
       </c>
       <c r="F10" t="n">
-        <v>348.0202652891861</v>
+        <v>174.3972908184118</v>
       </c>
       <c r="G10" t="n">
-        <v>348.0202652891861</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="X10" t="n">
-        <v>676.5586776173361</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="Y10" t="n">
-        <v>676.5586776173361</v>
+        <v>471.4038777286579</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2371.779505830389</v>
+        <v>2252.373813700879</v>
       </c>
       <c r="C11" t="n">
-        <v>2002.816988889978</v>
+        <v>1883.411296760467</v>
       </c>
       <c r="D11" t="n">
-        <v>1644.551290283227</v>
+        <v>1525.145598153717</v>
       </c>
       <c r="E11" t="n">
-        <v>1258.763037684983</v>
+        <v>1139.357345555473</v>
       </c>
       <c r="F11" t="n">
-        <v>847.777132895376</v>
+        <v>728.3714407658654</v>
       </c>
       <c r="G11" t="n">
-        <v>432.7046827403726</v>
+        <v>390.7077839798413</v>
       </c>
       <c r="H11" t="n">
-        <v>135.1210823491398</v>
+        <v>93.12418358860849</v>
       </c>
       <c r="I11" t="n">
-        <v>93.12418358860847</v>
+        <v>93.12418358860849</v>
       </c>
       <c r="J11" t="n">
-        <v>449.4089635679869</v>
+        <v>449.408963567987</v>
       </c>
       <c r="K11" t="n">
         <v>1104.132295703286</v>
       </c>
       <c r="L11" t="n">
-        <v>1555.166508951695</v>
+        <v>1777.016374633391</v>
       </c>
       <c r="M11" t="n">
-        <v>2088.69841362362</v>
+        <v>2310.548279305316</v>
       </c>
       <c r="N11" t="n">
-        <v>2635.477230682402</v>
+        <v>2857.327096364098</v>
       </c>
       <c r="O11" t="n">
-        <v>3360.299567243434</v>
+        <v>3360.299567243435</v>
       </c>
       <c r="P11" t="n">
-        <v>4073.65465469038</v>
+        <v>4073.654654690381</v>
       </c>
       <c r="Q11" t="n">
-        <v>4532.132857199368</v>
+        <v>4532.132857199369</v>
       </c>
       <c r="R11" t="n">
-        <v>4656.209179430423</v>
+        <v>4656.209179430424</v>
       </c>
       <c r="S11" t="n">
-        <v>4656.209179430423</v>
+        <v>4545.918510957519</v>
       </c>
       <c r="T11" t="n">
-        <v>4459.346455471252</v>
+        <v>4339.940763341741</v>
       </c>
       <c r="U11" t="n">
-        <v>4205.815978745088</v>
+        <v>4086.410286615577</v>
       </c>
       <c r="V11" t="n">
-        <v>3874.753091401517</v>
+        <v>3755.347399272006</v>
       </c>
       <c r="W11" t="n">
-        <v>3521.984436131403</v>
+        <v>3402.578744001892</v>
       </c>
       <c r="X11" t="n">
-        <v>3148.518677870323</v>
+        <v>3029.112985740812</v>
       </c>
       <c r="Y11" t="n">
-        <v>2758.379345894511</v>
+        <v>2638.973653765001</v>
       </c>
     </row>
     <row r="12">
@@ -5109,22 +5109,22 @@
         <v>338.9964697165844</v>
       </c>
       <c r="G12" t="n">
-        <v>202.633369549203</v>
+        <v>202.6333695492033</v>
       </c>
       <c r="H12" t="n">
-        <v>112.1314751870705</v>
+        <v>112.1314751870709</v>
       </c>
       <c r="I12" t="n">
-        <v>93.12418358860847</v>
+        <v>93.12418358860849</v>
       </c>
       <c r="J12" t="n">
-        <v>186.8014530792259</v>
+        <v>186.8014530792257</v>
       </c>
       <c r="K12" t="n">
-        <v>425.065652059573</v>
+        <v>425.0656520595726</v>
       </c>
       <c r="L12" t="n">
-        <v>791.7638123722385</v>
+        <v>791.7638123722381</v>
       </c>
       <c r="M12" t="n">
         <v>1239.040137594554</v>
@@ -5133,7 +5133,7 @@
         <v>1712.563181149009</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.524460567064</v>
+        <v>2123.524460567063</v>
       </c>
       <c r="P12" t="n">
         <v>2434.024052043166</v>
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>258.4674604825183</v>
+        <v>556.8634075968189</v>
       </c>
       <c r="C13" t="n">
-        <v>258.4674604825183</v>
+        <v>387.927224668912</v>
       </c>
       <c r="D13" t="n">
-        <v>258.4674604825183</v>
+        <v>387.927224668912</v>
       </c>
       <c r="E13" t="n">
-        <v>190.4498607702631</v>
+        <v>240.0141310865188</v>
       </c>
       <c r="F13" t="n">
-        <v>190.4498607702631</v>
+        <v>93.12418358860849</v>
       </c>
       <c r="G13" t="n">
-        <v>190.4498607702631</v>
+        <v>93.12418358860849</v>
       </c>
       <c r="H13" t="n">
-        <v>190.4498607702631</v>
+        <v>93.12418358860849</v>
       </c>
       <c r="I13" t="n">
-        <v>93.12418358860847</v>
+        <v>93.12418358860849</v>
       </c>
       <c r="J13" t="n">
         <v>138.246816035544</v>
       </c>
       <c r="K13" t="n">
-        <v>342.2339989844205</v>
+        <v>342.2339989844204</v>
       </c>
       <c r="L13" t="n">
         <v>658.7937974329166</v>
@@ -5215,34 +5215,34 @@
         <v>1643.688818658743</v>
       </c>
       <c r="P13" t="n">
-        <v>1876.296319092402</v>
+        <v>1876.296319092403</v>
       </c>
       <c r="Q13" t="n">
-        <v>1953.906615244917</v>
+        <v>1953.906615244918</v>
       </c>
       <c r="R13" t="n">
-        <v>1953.906615244917</v>
+        <v>1953.906615244918</v>
       </c>
       <c r="S13" t="n">
-        <v>1762.220731071744</v>
+        <v>1953.906615244918</v>
       </c>
       <c r="T13" t="n">
-        <v>1540.45411564127</v>
+        <v>1732.139999814444</v>
       </c>
       <c r="U13" t="n">
-        <v>1251.351248766913</v>
+        <v>1443.037132940087</v>
       </c>
       <c r="V13" t="n">
-        <v>996.6667605610263</v>
+        <v>1248.721621607549</v>
       </c>
       <c r="W13" t="n">
-        <v>707.2495905240658</v>
+        <v>959.3044515705888</v>
       </c>
       <c r="X13" t="n">
-        <v>479.2600396260484</v>
+        <v>959.3044515705888</v>
       </c>
       <c r="Y13" t="n">
-        <v>258.4674604825183</v>
+        <v>738.5118724270586</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690177</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
         <v>2005.253839749764</v>
@@ -5264,7 +5264,7 @@
         <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G14" t="n">
         <v>435.1415336001585</v>
@@ -5276,19 +5276,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L14" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2091.135264483406</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N14" t="n">
-        <v>2637.914081542188</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O14" t="n">
         <v>3482.142110232732</v>
@@ -5346,7 +5346,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H15" t="n">
         <v>114.5683260468565</v>
@@ -5355,13 +5355,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>498.9312815832557</v>
+        <v>393.5907674431233</v>
       </c>
       <c r="C16" t="n">
-        <v>413.3805104860112</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="D16" t="n">
-        <v>263.2638710736754</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E16" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
         <v>95.56103444839442</v>
@@ -5434,13 +5434,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M16" t="n">
         <v>1005.387693892251</v>
@@ -5449,22 +5449,22 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T16" t="n">
-        <v>1734.57685067423</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U16" t="n">
         <v>1445.473983799873</v>
@@ -5473,13 +5473,13 @@
         <v>1190.789495593986</v>
       </c>
       <c r="W16" t="n">
-        <v>901.3723255570255</v>
+        <v>1024.02136231491</v>
       </c>
       <c r="X16" t="n">
-        <v>901.3723255570255</v>
+        <v>796.0318114168931</v>
       </c>
       <c r="Y16" t="n">
-        <v>680.5797464134954</v>
+        <v>575.239232273363</v>
       </c>
     </row>
     <row r="17">
@@ -5504,7 +5504,7 @@
         <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5513,28 +5513,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L17" t="n">
-        <v>1482.778354750621</v>
+        <v>1453.840519464784</v>
       </c>
       <c r="M17" t="n">
-        <v>2216.257005193957</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N17" t="n">
-        <v>3196.009277420604</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5546,19 +5546,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
@@ -5595,10 +5595,10 @@
         <v>189.2383039390115</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193584</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L18" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5610,22 +5610,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>498.9312815832559</v>
+        <v>726.3303343661178</v>
       </c>
       <c r="C19" t="n">
-        <v>329.995098655349</v>
+        <v>557.3941514382109</v>
       </c>
       <c r="D19" t="n">
-        <v>329.995098655349</v>
+        <v>557.3941514382109</v>
       </c>
       <c r="E19" t="n">
-        <v>182.0820050729558</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F19" t="n">
-        <v>182.0820050729558</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H19" t="n">
         <v>95.56103444839442</v>
@@ -5677,7 +5677,7 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M19" t="n">
         <v>1005.387693892251</v>
@@ -5695,28 +5695,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1734.57685067423</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U19" t="n">
-        <v>1445.473983799873</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="V19" t="n">
-        <v>1190.789495593986</v>
+        <v>1131.039769608815</v>
       </c>
       <c r="W19" t="n">
-        <v>901.3723255570255</v>
+        <v>1131.039769608815</v>
       </c>
       <c r="X19" t="n">
-        <v>901.3723255570255</v>
+        <v>903.0502187107976</v>
       </c>
       <c r="Y19" t="n">
-        <v>680.5797464134956</v>
+        <v>726.3303343661178</v>
       </c>
     </row>
     <row r="20">
@@ -5729,49 +5729,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>1014.851249206415</v>
       </c>
       <c r="L20" t="n">
-        <v>1482.778354750621</v>
+        <v>1465.885462454824</v>
       </c>
       <c r="M20" t="n">
-        <v>2461.32865758045</v>
+        <v>1999.417367126749</v>
       </c>
       <c r="N20" t="n">
-        <v>3441.080929807096</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5780,19 +5780,19 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
         <v>2760.816196754298</v>
@@ -5805,37 +5805,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193591</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320246</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5871,10 +5871,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839442</v>
+        <v>803.8133219477185</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839442</v>
+        <v>803.8133219477185</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839442</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839442</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
@@ -5923,37 +5923,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V22" t="n">
-        <v>1015.408799357142</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="W22" t="n">
-        <v>725.9916293201816</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="X22" t="n">
-        <v>498.0020784221642</v>
+        <v>935.9680914862095</v>
       </c>
       <c r="Y22" t="n">
-        <v>277.2094992786341</v>
+        <v>803.8133219477185</v>
       </c>
     </row>
     <row r="23">
@@ -5978,7 +5978,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -5996,13 +5996,13 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.32865758045</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807096</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P23" t="n">
         <v>4470.748294107237</v>
@@ -6042,34 +6042,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089891</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L24" t="n">
         <v>794.200663232024</v>
@@ -6078,16 +6078,16 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142068</v>
@@ -6108,10 +6108,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>211.1920047000664</v>
+        <v>414.6138567886371</v>
       </c>
       <c r="C25" t="n">
-        <v>211.1920047000664</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D25" t="n">
-        <v>211.1920047000664</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>211.1920047000664</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>211.1920047000664</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
         <v>95.56103444839442</v>
@@ -6172,25 +6172,25 @@
         <v>1866.513008862231</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T25" t="n">
-        <v>1674.827124689058</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U25" t="n">
-        <v>1385.724257814701</v>
+        <v>1186.705065929502</v>
       </c>
       <c r="V25" t="n">
-        <v>1131.039769608814</v>
+        <v>932.0205777236149</v>
       </c>
       <c r="W25" t="n">
-        <v>841.6225995718536</v>
+        <v>642.6034076866544</v>
       </c>
       <c r="X25" t="n">
-        <v>613.6330486738362</v>
+        <v>414.6138567886371</v>
       </c>
       <c r="Y25" t="n">
-        <v>392.8404695303061</v>
+        <v>414.6138567886371</v>
       </c>
     </row>
     <row r="26">
@@ -6212,16 +6212,16 @@
         <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551634</v>
       </c>
       <c r="G26" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J26" t="n">
         <v>451.8458144277728</v>
@@ -6230,31 +6230,31 @@
         <v>1106.569146563072</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483405</v>
+        <v>2504.619866888351</v>
       </c>
       <c r="N26" t="n">
-        <v>2637.914081542187</v>
+        <v>3051.398683947134</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232732</v>
+        <v>3554.371154826471</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679678</v>
+        <v>4267.726242273417</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.03465586292</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U26" t="n">
         <v>4208.252829604875</v>
@@ -6300,10 +6300,10 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K27" t="n">
         <v>427.5025029193594</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>413.3805104860112</v>
+        <v>278.5282561439489</v>
       </c>
       <c r="C28" t="n">
-        <v>413.3805104860112</v>
+        <v>109.592073216042</v>
       </c>
       <c r="D28" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="E28" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="F28" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6406,28 +6406,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T28" t="n">
-        <v>1764.65758193153</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1475.554715057173</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V28" t="n">
-        <v>1220.870226851286</v>
+        <v>1198.376021052697</v>
       </c>
       <c r="W28" t="n">
-        <v>931.4530568143256</v>
+        <v>908.9588510157361</v>
       </c>
       <c r="X28" t="n">
-        <v>703.4635059163082</v>
+        <v>680.9693001177187</v>
       </c>
       <c r="Y28" t="n">
-        <v>482.6709267727781</v>
+        <v>460.1767209741886</v>
       </c>
     </row>
     <row r="29">
@@ -6452,7 +6452,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6464,19 +6464,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>750.1800661608922</v>
+        <v>932.5990189467752</v>
       </c>
       <c r="L29" t="n">
-        <v>1614.698881814247</v>
+        <v>1797.11783460013</v>
       </c>
       <c r="M29" t="n">
-        <v>2593.249184644075</v>
+        <v>2330.649739272054</v>
       </c>
       <c r="N29" t="n">
-        <v>3573.001456870722</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750059</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P29" t="n">
         <v>4470.748294107237</v>
@@ -6543,22 +6543,22 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>263.2638710736754</v>
+        <v>333.9403347179513</v>
       </c>
       <c r="C31" t="n">
-        <v>263.2638710736754</v>
+        <v>165.0041517900443</v>
       </c>
       <c r="D31" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
         <v>95.56103444839442</v>
@@ -6619,13 +6619,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442061</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M31" t="n">
         <v>1005.387693892251</v>
@@ -6637,34 +6637,34 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q31" t="n">
         <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T31" t="n">
-        <v>1674.827124689058</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1437.79612418831</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V31" t="n">
-        <v>1183.111635982423</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="W31" t="n">
-        <v>893.6944659454626</v>
+        <v>964.3709295897384</v>
       </c>
       <c r="X31" t="n">
-        <v>665.7049150474453</v>
+        <v>736.3813786917211</v>
       </c>
       <c r="Y31" t="n">
-        <v>444.9123359039152</v>
+        <v>515.588799548191</v>
       </c>
     </row>
     <row r="32">
@@ -6677,16 +6677,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
         <v>435.1415336001585</v>
@@ -6698,28 +6698,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L32" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N32" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>3517.878731871642</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6728,16 +6728,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
         <v>3150.95552873011</v>
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H33" t="n">
         <v>114.5683260468565</v>
@@ -6780,22 +6780,22 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
@@ -6819,10 +6819,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>414.6138567886371</v>
+        <v>171.0738540998324</v>
       </c>
       <c r="C34" t="n">
-        <v>245.6776738607302</v>
+        <v>171.0738540998324</v>
       </c>
       <c r="D34" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839434</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839434</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839434</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839434</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839434</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
         <v>344.6708498442063</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M34" t="n">
         <v>1005.387693892251</v>
@@ -6871,37 +6871,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S34" t="n">
-        <v>1866.513008862232</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T34" t="n">
-        <v>1866.513008862232</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U34" t="n">
-        <v>1589.146109903272</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V34" t="n">
-        <v>1334.461621697385</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W34" t="n">
-        <v>1045.044451660424</v>
+        <v>619.8559841413798</v>
       </c>
       <c r="X34" t="n">
-        <v>817.0549007624069</v>
+        <v>391.8664332433625</v>
       </c>
       <c r="Y34" t="n">
-        <v>596.2623216188767</v>
+        <v>171.0738540998324</v>
       </c>
     </row>
     <row r="35">
@@ -6911,55 +6911,55 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2125.541379055227</v>
+        <v>2125.541379055226</v>
       </c>
       <c r="C35" t="n">
-        <v>1790.615381400045</v>
+        <v>1790.615381400044</v>
       </c>
       <c r="D35" t="n">
         <v>1466.386202078525</v>
       </c>
       <c r="E35" t="n">
-        <v>1114.634468765512</v>
+        <v>1114.634468765511</v>
       </c>
       <c r="F35" t="n">
-        <v>737.6850832611349</v>
+        <v>737.6850832611344</v>
       </c>
       <c r="G35" t="n">
-        <v>356.6491523913616</v>
+        <v>356.6491523913615</v>
       </c>
       <c r="H35" t="n">
-        <v>93.10207128535932</v>
+        <v>93.10207128535926</v>
       </c>
       <c r="I35" t="n">
-        <v>85.14169181005855</v>
+        <v>85.14169181005853</v>
       </c>
       <c r="J35" t="n">
-        <v>274.020822769084</v>
+        <v>441.426471789437</v>
       </c>
       <c r="K35" t="n">
-        <v>926.8575724574857</v>
+        <v>775.2458454792834</v>
       </c>
       <c r="L35" t="n">
-        <v>1377.891785705895</v>
+        <v>1226.280058727692</v>
       </c>
       <c r="M35" t="n">
-        <v>1911.423690377819</v>
+        <v>1759.811963399616</v>
       </c>
       <c r="N35" t="n">
-        <v>2458.202507436602</v>
+        <v>2306.590780458399</v>
       </c>
       <c r="O35" t="n">
-        <v>2961.174978315938</v>
+        <v>3186.555430787853</v>
       </c>
       <c r="P35" t="n">
-        <v>3674.530065762884</v>
+        <v>3899.910518234799</v>
       </c>
       <c r="Q35" t="n">
-        <v>4133.008268271872</v>
+        <v>4198.067523946124</v>
       </c>
       <c r="R35" t="n">
-        <v>4257.084590502927</v>
+        <v>4257.084590502926</v>
       </c>
       <c r="S35" t="n">
         <v>4180.830441315253</v>
@@ -6968,19 +6968,19 @@
         <v>4008.889212984705</v>
       </c>
       <c r="U35" t="n">
-        <v>3789.395255543773</v>
+        <v>3789.395255543772</v>
       </c>
       <c r="V35" t="n">
         <v>3492.368887485432</v>
       </c>
       <c r="W35" t="n">
-        <v>3173.636751500549</v>
+        <v>3173.636751500548</v>
       </c>
       <c r="X35" t="n">
-        <v>2834.207512524699</v>
+        <v>2834.207512524698</v>
       </c>
       <c r="Y35" t="n">
-        <v>2478.104699834118</v>
+        <v>2478.104699834117</v>
       </c>
     </row>
     <row r="36">
@@ -6990,70 +6990,70 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>960.173429858984</v>
+        <v>960.1734298589837</v>
       </c>
       <c r="C36" t="n">
-        <v>785.720400577857</v>
+        <v>785.7204005778567</v>
       </c>
       <c r="D36" t="n">
-        <v>636.7859909166059</v>
+        <v>636.7859909166054</v>
       </c>
       <c r="E36" t="n">
-        <v>477.5485359111503</v>
+        <v>477.54853591115</v>
       </c>
       <c r="F36" t="n">
-        <v>331.0139779380354</v>
+        <v>331.013977938035</v>
       </c>
       <c r="G36" t="n">
-        <v>194.650877770654</v>
+        <v>194.6508777706531</v>
       </c>
       <c r="H36" t="n">
-        <v>104.148983408521</v>
+        <v>104.1489834085206</v>
       </c>
       <c r="I36" t="n">
-        <v>85.14169181005855</v>
+        <v>85.14169181005853</v>
       </c>
       <c r="J36" t="n">
-        <v>178.8189613006762</v>
+        <v>178.8189613006758</v>
       </c>
       <c r="K36" t="n">
-        <v>417.0831602810235</v>
+        <v>417.0831602810229</v>
       </c>
       <c r="L36" t="n">
-        <v>783.7813205936889</v>
+        <v>783.7813205936882</v>
       </c>
       <c r="M36" t="n">
-        <v>1231.057645816005</v>
+        <v>1231.057645816004</v>
       </c>
       <c r="N36" t="n">
-        <v>1704.580689370459</v>
+        <v>1704.580689370458</v>
       </c>
       <c r="O36" t="n">
-        <v>2115.541968788514</v>
+        <v>2115.541968788513</v>
       </c>
       <c r="P36" t="n">
-        <v>2426.041560264617</v>
+        <v>2426.041560264616</v>
       </c>
       <c r="Q36" t="n">
-        <v>2583.683117911217</v>
+        <v>2583.683117911216</v>
       </c>
       <c r="R36" t="n">
-        <v>2583.538764503732</v>
+        <v>2583.538764503731</v>
       </c>
       <c r="S36" t="n">
-        <v>2454.100877997212</v>
+        <v>2454.100877997211</v>
       </c>
       <c r="T36" t="n">
-        <v>2261.457877675068</v>
+        <v>2261.457877675067</v>
       </c>
       <c r="U36" t="n">
         <v>2033.390030809483</v>
       </c>
       <c r="V36" t="n">
-        <v>1798.237922577741</v>
+        <v>1798.23792257774</v>
       </c>
       <c r="W36" t="n">
-        <v>1544.000565849539</v>
+        <v>1544.000565849538</v>
       </c>
       <c r="X36" t="n">
         <v>1336.149065644006</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>552.2082606099666</v>
+        <v>739.9383567552113</v>
       </c>
       <c r="C37" t="n">
-        <v>417.3085969672903</v>
+        <v>605.0386931125352</v>
       </c>
       <c r="D37" t="n">
-        <v>417.3085969672903</v>
+        <v>557.718679156863</v>
       </c>
       <c r="E37" t="n">
-        <v>417.3085969672903</v>
+        <v>443.8421048597004</v>
       </c>
       <c r="F37" t="n">
-        <v>394.2778345434449</v>
+        <v>330.9886766470207</v>
       </c>
       <c r="G37" t="n">
-        <v>260.6115172033944</v>
+        <v>197.3223593069702</v>
       </c>
       <c r="H37" t="n">
-        <v>148.4308497064827</v>
+        <v>85.14169181005853</v>
       </c>
       <c r="I37" t="n">
-        <v>85.14169181005855</v>
+        <v>85.14169181005853</v>
       </c>
       <c r="J37" t="n">
         <v>163.6235168084486</v>
@@ -7102,10 +7102,10 @@
         <v>750.8888833087301</v>
       </c>
       <c r="M37" t="n">
-        <v>1128.405121459733</v>
+        <v>1128.405121459734</v>
       </c>
       <c r="N37" t="n">
-        <v>1503.172690717052</v>
+        <v>1503.172690717053</v>
       </c>
       <c r="O37" t="n">
         <v>1835.86148218892</v>
@@ -7120,25 +7120,25 @@
         <v>2157.003725920762</v>
       </c>
       <c r="S37" t="n">
-        <v>1999.354361032818</v>
+        <v>1999.354361032819</v>
       </c>
       <c r="T37" t="n">
-        <v>1811.624264887575</v>
+        <v>1999.354361032819</v>
       </c>
       <c r="U37" t="n">
-        <v>1556.557917298449</v>
+        <v>1744.288013443693</v>
       </c>
       <c r="V37" t="n">
-        <v>1335.909948377792</v>
+        <v>1523.640044523037</v>
       </c>
       <c r="W37" t="n">
-        <v>1080.529297626062</v>
+        <v>1268.259393771307</v>
       </c>
       <c r="X37" t="n">
-        <v>886.5762660132755</v>
+        <v>1074.30636215852</v>
       </c>
       <c r="Y37" t="n">
-        <v>699.8202061549757</v>
+        <v>887.5503023002204</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2067.381871868335</v>
       </c>
       <c r="C38" t="n">
-        <v>1740.416253688455</v>
+        <v>1740.416253688454</v>
       </c>
       <c r="D38" t="n">
         <v>1424.147453842235</v>
@@ -7172,28 +7172,28 @@
         <v>82.7048409502726</v>
       </c>
       <c r="J38" t="n">
-        <v>438.9896209296511</v>
+        <v>271.583971909298</v>
       </c>
       <c r="K38" t="n">
-        <v>805.015029468188</v>
+        <v>605.4033455991444</v>
       </c>
       <c r="L38" t="n">
-        <v>1256.049242716597</v>
+        <v>1056.437558847553</v>
       </c>
       <c r="M38" t="n">
-        <v>1789.581147388521</v>
+        <v>1950.439509737984</v>
       </c>
       <c r="N38" t="n">
-        <v>2336.359964447304</v>
+        <v>2930.19178196463</v>
       </c>
       <c r="O38" t="n">
-        <v>2839.332435326641</v>
+        <v>3433.164252843967</v>
       </c>
       <c r="P38" t="n">
-        <v>3552.687522773586</v>
+        <v>3827.938619201145</v>
       </c>
       <c r="Q38" t="n">
-        <v>4011.165725282574</v>
+        <v>4076.224980956827</v>
       </c>
       <c r="R38" t="n">
         <v>4135.24204751363</v>
@@ -7236,16 +7236,16 @@
         <v>634.3491400568196</v>
       </c>
       <c r="E39" t="n">
-        <v>475.111685051364</v>
+        <v>475.1116850513641</v>
       </c>
       <c r="F39" t="n">
-        <v>328.577127078249</v>
+        <v>328.5771270782491</v>
       </c>
       <c r="G39" t="n">
-        <v>192.2140269108671</v>
+        <v>192.2140269108672</v>
       </c>
       <c r="H39" t="n">
-        <v>101.7121325487346</v>
+        <v>101.7121325487347</v>
       </c>
       <c r="I39" t="n">
         <v>82.7048409502726</v>
@@ -7254,25 +7254,25 @@
         <v>176.3821104408899</v>
       </c>
       <c r="K39" t="n">
-        <v>414.6463094212371</v>
+        <v>414.646309421237</v>
       </c>
       <c r="L39" t="n">
-        <v>781.3444697339025</v>
+        <v>781.3444697339023</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.620794956219</v>
+        <v>1228.620794956218</v>
       </c>
       <c r="N39" t="n">
         <v>1702.143838510673</v>
       </c>
       <c r="O39" t="n">
-        <v>2113.105117928728</v>
+        <v>2113.105117928727</v>
       </c>
       <c r="P39" t="n">
-        <v>2423.604709404831</v>
+        <v>2423.60470940483</v>
       </c>
       <c r="Q39" t="n">
-        <v>2581.246267051431</v>
+        <v>2581.24626705143</v>
       </c>
       <c r="R39" t="n">
         <v>2581.101913643946</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>758.4993352150543</v>
+        <v>683.8305684178259</v>
       </c>
       <c r="C40" t="n">
-        <v>631.5600510476787</v>
+        <v>578.7690888169976</v>
       </c>
       <c r="D40" t="n">
-        <v>523.4403103958742</v>
+        <v>578.7690888169976</v>
       </c>
       <c r="E40" t="n">
-        <v>417.5241155740124</v>
+        <v>472.8528939951358</v>
       </c>
       <c r="F40" t="n">
-        <v>312.6310668366333</v>
+        <v>367.9598452577567</v>
       </c>
       <c r="G40" t="n">
-        <v>186.9251289718835</v>
+        <v>242.2539073930069</v>
       </c>
       <c r="H40" t="n">
-        <v>82.7048409502726</v>
+        <v>138.033619371396</v>
       </c>
       <c r="I40" t="n">
         <v>82.7048409502726</v>
       </c>
       <c r="J40" t="n">
-        <v>168.988633872405</v>
+        <v>168.9886338724048</v>
       </c>
       <c r="K40" t="n">
         <v>414.1369772964779</v>
       </c>
       <c r="L40" t="n">
-        <v>771.8579362201708</v>
+        <v>771.8579362201706</v>
       </c>
       <c r="M40" t="n">
         <v>1157.176142294916</v>
@@ -7351,31 +7351,31 @@
         <v>2154.005099780444</v>
       </c>
       <c r="Q40" t="n">
-        <v>2272.776556408156</v>
+        <v>2272.776556408155</v>
       </c>
       <c r="R40" t="n">
         <v>2224.942997926215</v>
       </c>
       <c r="S40" t="n">
-        <v>2075.254012513573</v>
+        <v>2075.254012513572</v>
       </c>
       <c r="T40" t="n">
-        <v>1895.48429584363</v>
+        <v>1895.484295843629</v>
       </c>
       <c r="U40" t="n">
-        <v>1648.378327729805</v>
+        <v>1648.378327729804</v>
       </c>
       <c r="V40" t="n">
-        <v>1435.690738284449</v>
+        <v>1435.690738284448</v>
       </c>
       <c r="W40" t="n">
-        <v>1188.27046700802</v>
+        <v>1188.270467008019</v>
       </c>
       <c r="X40" t="n">
-        <v>1002.277814870534</v>
+        <v>1002.277814870533</v>
       </c>
       <c r="Y40" t="n">
-        <v>823.4821344875352</v>
+        <v>823.4821344875344</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2067.381871868334</v>
+        <v>2067.381871868335</v>
       </c>
       <c r="C41" t="n">
-        <v>1740.416253688454</v>
+        <v>1740.416253688455</v>
       </c>
       <c r="D41" t="n">
-        <v>1424.147453842234</v>
+        <v>1424.147453842236</v>
       </c>
       <c r="E41" t="n">
-        <v>1080.356100004522</v>
+        <v>1080.356100004523</v>
       </c>
       <c r="F41" t="n">
-        <v>711.3670939754452</v>
+        <v>711.3670939754463</v>
       </c>
       <c r="G41" t="n">
-        <v>338.2915425809729</v>
+        <v>338.2915425809741</v>
       </c>
       <c r="H41" t="n">
-        <v>82.70484095027129</v>
+        <v>82.7048409502726</v>
       </c>
       <c r="I41" t="n">
         <v>82.7048409502726</v>
@@ -7412,22 +7412,22 @@
         <v>271.583971909298</v>
       </c>
       <c r="K41" t="n">
-        <v>870.0742851424402</v>
+        <v>605.4033455991444</v>
       </c>
       <c r="L41" t="n">
-        <v>1321.108498390849</v>
+        <v>1056.437558847553</v>
       </c>
       <c r="M41" t="n">
-        <v>1854.640403062774</v>
+        <v>1950.439509737984</v>
       </c>
       <c r="N41" t="n">
-        <v>2401.419220121556</v>
+        <v>2930.19178196463</v>
       </c>
       <c r="O41" t="n">
-        <v>2904.391691000893</v>
+        <v>3433.164252843967</v>
       </c>
       <c r="P41" t="n">
-        <v>3617.746778447839</v>
+        <v>3827.938619201145</v>
       </c>
       <c r="Q41" t="n">
         <v>4076.224980956827</v>
@@ -7448,7 +7448,7 @@
         <v>3402.367862397337</v>
       </c>
       <c r="W41" t="n">
-        <v>3091.596105887754</v>
+        <v>3091.596105887755</v>
       </c>
       <c r="X41" t="n">
         <v>2760.127246387206</v>
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>957.7365789991979</v>
+        <v>957.7365789991978</v>
       </c>
       <c r="C42" t="n">
-        <v>783.283549718071</v>
+        <v>783.2835497180708</v>
       </c>
       <c r="D42" t="n">
-        <v>634.3491400568197</v>
+        <v>634.3491400568196</v>
       </c>
       <c r="E42" t="n">
-        <v>475.1116850513642</v>
+        <v>475.1116850513641</v>
       </c>
       <c r="F42" t="n">
-        <v>328.5771270782492</v>
+        <v>328.5771270782491</v>
       </c>
       <c r="G42" t="n">
-        <v>192.2140269108673</v>
+        <v>192.2140269108672</v>
       </c>
       <c r="H42" t="n">
-        <v>101.7121325487348</v>
+        <v>101.7121325487347</v>
       </c>
       <c r="I42" t="n">
         <v>82.7048409502726</v>
@@ -7491,25 +7491,25 @@
         <v>176.3821104408899</v>
       </c>
       <c r="K42" t="n">
-        <v>414.6463094212371</v>
+        <v>414.646309421237</v>
       </c>
       <c r="L42" t="n">
-        <v>781.3444697339025</v>
+        <v>781.3444697339023</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.620794956219</v>
+        <v>1228.620794956218</v>
       </c>
       <c r="N42" t="n">
         <v>1702.143838510673</v>
       </c>
       <c r="O42" t="n">
-        <v>2113.105117928728</v>
+        <v>2113.105117928727</v>
       </c>
       <c r="P42" t="n">
-        <v>2423.604709404831</v>
+        <v>2423.60470940483</v>
       </c>
       <c r="Q42" t="n">
-        <v>2581.246267051431</v>
+        <v>2581.24626705143</v>
       </c>
       <c r="R42" t="n">
         <v>2581.101913643946</v>
@@ -7527,7 +7527,7 @@
         <v>1795.801071717954</v>
       </c>
       <c r="W42" t="n">
-        <v>1541.563714989753</v>
+        <v>1541.563714989752</v>
       </c>
       <c r="X42" t="n">
         <v>1333.71221478422</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>683.830568417825</v>
+        <v>683.8305684178259</v>
       </c>
       <c r="C43" t="n">
-        <v>683.830568417825</v>
+        <v>556.8912842504503</v>
       </c>
       <c r="D43" t="n">
-        <v>575.7108277660205</v>
+        <v>448.7715435986458</v>
       </c>
       <c r="E43" t="n">
-        <v>469.7946329441587</v>
+        <v>342.855348776784</v>
       </c>
       <c r="F43" t="n">
-        <v>364.9015842067796</v>
+        <v>237.9623000394049</v>
       </c>
       <c r="G43" t="n">
-        <v>242.253907393007</v>
+        <v>112.2563621746544</v>
       </c>
       <c r="H43" t="n">
-        <v>138.033619371396</v>
+        <v>112.2563621746544</v>
       </c>
       <c r="I43" t="n">
         <v>82.7048409502726</v>
@@ -7573,7 +7573,7 @@
         <v>414.1369772964779</v>
       </c>
       <c r="L43" t="n">
-        <v>771.8579362201706</v>
+        <v>771.8579362201707</v>
       </c>
       <c r="M43" t="n">
         <v>1157.176142294916</v>
@@ -7609,10 +7609,10 @@
         <v>1188.270467008019</v>
       </c>
       <c r="X43" t="n">
-        <v>1002.277814870532</v>
+        <v>1002.277814870533</v>
       </c>
       <c r="Y43" t="n">
-        <v>823.4821344875335</v>
+        <v>823.4821344875344</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2067.381871868335</v>
+        <v>2067.381871868336</v>
       </c>
       <c r="C44" t="n">
-        <v>1740.416253688455</v>
+        <v>1740.416253688456</v>
       </c>
       <c r="D44" t="n">
-        <v>1424.147453842235</v>
+        <v>1424.147453842236</v>
       </c>
       <c r="E44" t="n">
-        <v>1080.356100004522</v>
+        <v>1080.356100004523</v>
       </c>
       <c r="F44" t="n">
-        <v>711.3670939754461</v>
+        <v>711.367093975447</v>
       </c>
       <c r="G44" t="n">
         <v>338.2915425809741</v>
@@ -7646,28 +7646,28 @@
         <v>82.7048409502726</v>
       </c>
       <c r="J44" t="n">
-        <v>271.583971909298</v>
+        <v>438.9896209296511</v>
       </c>
       <c r="K44" t="n">
-        <v>870.0742851424402</v>
+        <v>1093.712953064951</v>
       </c>
       <c r="L44" t="n">
-        <v>1321.108498390849</v>
+        <v>1574.629963806364</v>
       </c>
       <c r="M44" t="n">
-        <v>1854.640403062774</v>
+        <v>2108.161868478289</v>
       </c>
       <c r="N44" t="n">
-        <v>2401.419220121556</v>
+        <v>2654.940685537071</v>
       </c>
       <c r="O44" t="n">
-        <v>2904.391691000893</v>
+        <v>3157.913156416408</v>
       </c>
       <c r="P44" t="n">
-        <v>3617.746778447839</v>
+        <v>3552.687522773586</v>
       </c>
       <c r="Q44" t="n">
-        <v>4076.224980956827</v>
+        <v>4011.165725282574</v>
       </c>
       <c r="R44" t="n">
         <v>4135.24204751363</v>
@@ -7682,16 +7682,16 @@
         <v>3691.433850980377</v>
       </c>
       <c r="V44" t="n">
-        <v>3402.367862397337</v>
+        <v>3402.367862397338</v>
       </c>
       <c r="W44" t="n">
-        <v>3091.596105887754</v>
+        <v>3091.596105887756</v>
       </c>
       <c r="X44" t="n">
-        <v>2760.127246387206</v>
+        <v>2760.127246387207</v>
       </c>
       <c r="Y44" t="n">
-        <v>2411.984813171925</v>
+        <v>2411.984813171926</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>957.7365789991979</v>
+        <v>957.7365789991973</v>
       </c>
       <c r="C45" t="n">
-        <v>783.283549718071</v>
+        <v>783.2835497180703</v>
       </c>
       <c r="D45" t="n">
-        <v>634.3491400568197</v>
+        <v>634.3491400568191</v>
       </c>
       <c r="E45" t="n">
-        <v>475.1116850513642</v>
+        <v>475.1116850513636</v>
       </c>
       <c r="F45" t="n">
-        <v>328.5771270782492</v>
+        <v>328.5771270782486</v>
       </c>
       <c r="G45" t="n">
-        <v>192.2140269108673</v>
+        <v>192.2140269108671</v>
       </c>
       <c r="H45" t="n">
-        <v>101.7121325487348</v>
+        <v>101.7121325487346</v>
       </c>
       <c r="I45" t="n">
         <v>82.7048409502726</v>
@@ -7731,28 +7731,28 @@
         <v>414.6463094212371</v>
       </c>
       <c r="L45" t="n">
-        <v>781.3444697339025</v>
+        <v>781.3444697339022</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.620794956219</v>
+        <v>1228.620794956218</v>
       </c>
       <c r="N45" t="n">
         <v>1702.143838510673</v>
       </c>
       <c r="O45" t="n">
-        <v>2113.105117928728</v>
+        <v>2113.105117928727</v>
       </c>
       <c r="P45" t="n">
-        <v>2423.604709404831</v>
+        <v>2423.60470940483</v>
       </c>
       <c r="Q45" t="n">
-        <v>2581.246267051431</v>
+        <v>2581.24626705143</v>
       </c>
       <c r="R45" t="n">
-        <v>2581.101913643946</v>
+        <v>2581.101913643945</v>
       </c>
       <c r="S45" t="n">
-        <v>2451.664027137426</v>
+        <v>2451.664027137425</v>
       </c>
       <c r="T45" t="n">
         <v>2259.021026815281</v>
@@ -7764,13 +7764,13 @@
         <v>1795.801071717954</v>
       </c>
       <c r="W45" t="n">
-        <v>1541.563714989753</v>
+        <v>1541.563714989752</v>
       </c>
       <c r="X45" t="n">
-        <v>1333.71221478422</v>
+        <v>1333.712214784219</v>
       </c>
       <c r="Y45" t="n">
-        <v>1125.951916019266</v>
+        <v>1125.951916019265</v>
       </c>
     </row>
     <row r="46">
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>683.8305684178249</v>
+        <v>709.607825614567</v>
       </c>
       <c r="C46" t="n">
-        <v>556.8912842504492</v>
+        <v>582.6685414471914</v>
       </c>
       <c r="D46" t="n">
-        <v>448.7715435986447</v>
+        <v>474.548800795387</v>
       </c>
       <c r="E46" t="n">
-        <v>342.8553487767828</v>
+        <v>368.6326059735251</v>
       </c>
       <c r="F46" t="n">
-        <v>312.6310668366334</v>
+        <v>263.7395572361461</v>
       </c>
       <c r="G46" t="n">
-        <v>186.9251289718836</v>
+        <v>138.033619371396</v>
       </c>
       <c r="H46" t="n">
-        <v>82.7048409502726</v>
+        <v>138.033619371396</v>
       </c>
       <c r="I46" t="n">
         <v>82.7048409502726</v>
@@ -7807,13 +7807,13 @@
         <v>168.9886338724048</v>
       </c>
       <c r="K46" t="n">
-        <v>414.1369772964778</v>
+        <v>414.1369772964779</v>
       </c>
       <c r="L46" t="n">
-        <v>771.8579362201706</v>
+        <v>771.857936220171</v>
       </c>
       <c r="M46" t="n">
-        <v>1157.176142294916</v>
+        <v>1157.176142294917</v>
       </c>
       <c r="N46" t="n">
         <v>1539.745679475978</v>
@@ -7825,31 +7825,31 @@
         <v>2154.005099780444</v>
       </c>
       <c r="Q46" t="n">
-        <v>2272.776556408155</v>
+        <v>2272.776556408156</v>
       </c>
       <c r="R46" t="n">
-        <v>2224.942997926214</v>
+        <v>2224.942997926215</v>
       </c>
       <c r="S46" t="n">
         <v>2075.254012513572</v>
       </c>
       <c r="T46" t="n">
-        <v>1895.484295843629</v>
+        <v>1895.48429584363</v>
       </c>
       <c r="U46" t="n">
-        <v>1648.378327729803</v>
+        <v>1648.378327729805</v>
       </c>
       <c r="V46" t="n">
-        <v>1435.690738284448</v>
+        <v>1435.690738284449</v>
       </c>
       <c r="W46" t="n">
-        <v>1188.270467008018</v>
+        <v>1214.04772420476</v>
       </c>
       <c r="X46" t="n">
-        <v>1002.277814870532</v>
+        <v>1028.055072067274</v>
       </c>
       <c r="Y46" t="n">
-        <v>823.4821344875334</v>
+        <v>849.2593916842754</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>96.43234051022031</v>
+        <v>61.05402004434031</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>51.10168090853713</v>
+        <v>86.48000137441549</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,7 +8535,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747075</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8693,7 +8693,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>224.0907734158547</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>224.0907734158541</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8939,7 +8939,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>344.7025836476838</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>219.3344627260163</v>
       </c>
       <c r="M17" t="n">
-        <v>201.9664098701126</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,31 +9398,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>231.5010718068643</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>133.2530576400255</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9878,7 +9878,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9887,16 +9887,16 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>344.7025836476853</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>205.0727796301223</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10112,22 +10112,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>133.2530576400263</v>
+        <v>317.5146261106152</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>285.7011105564223</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,10 +10583,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>322.2397737359144</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10598,16 +10598,16 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>50.37438783398298</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>32.53134833201051</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>364.111157796471</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10923,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,25 +11060,25 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>267.3443833770663</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>364.111157796471</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11160,7 +11160,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,13 +11294,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>267.3443833770663</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>30.18464393232807</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11312,13 +11312,13 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>76.63470543528999</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>9.023873420040291</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>79.0965389314364</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -23434,7 +23434,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,13 +23473,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>59.76528710461551</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>82.55155771235557</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -23713,10 +23713,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>121.4225463903065</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182095</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,10 +23902,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>80.37004734071243</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>43.63196785086171</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,19 +24181,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>16.14213605696614</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>87.75143150898852</v>
       </c>
     </row>
     <row r="23">
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>51.55114770987294</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,10 +24415,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>22.51994930982232</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>111.2344680580381</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>134.7247446382413</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,7 +24613,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,10 +24838,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>79.86678684997896</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,7 +24850,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24883,19 +24883,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>51.55114770987296</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>73.85778156328877</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25093,7 +25093,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,13 +25123,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>11.61860823624244</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25315,13 +25315,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>114.9193189258342</v>
+        <v>68.07250510971878</v>
       </c>
       <c r="E37" t="n">
-        <v>112.737808554191</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>88.92443913094611</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>62.65626631745985</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,7 +25363,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>185.8527951837909</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25546,13 +25546,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>73.92207912925531</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>21.65902652088185</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>107.0385432452864</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>54.77549063691213</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>125.6698913257019</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25798,13 +25798,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>3.02767844046744</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>103.1780851413948</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>25.51948462477421</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26032,16 +26032,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>73.92207912925747</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>103.1780851413948</v>
       </c>
       <c r="I46" t="n">
-        <v>54.77549063691217</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>25.51948462477347</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1142324.178149963</v>
+        <v>1142324.178149964</v>
       </c>
     </row>
     <row r="15">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>307890.6636991061</v>
+      </c>
+      <c r="C2" t="n">
         <v>307890.6636991063</v>
       </c>
-      <c r="C2" t="n">
-        <v>307890.6636991064</v>
-      </c>
       <c r="D2" t="n">
-        <v>307890.6636991064</v>
+        <v>307890.6636991063</v>
       </c>
       <c r="E2" t="n">
-        <v>294282.7228542723</v>
+        <v>294282.7228542724</v>
       </c>
       <c r="F2" t="n">
         <v>297811.3401652375</v>
@@ -26332,28 +26332,28 @@
         <v>297811.3401652376</v>
       </c>
       <c r="I2" t="n">
-        <v>297811.3401652376</v>
+        <v>297811.3401652375</v>
       </c>
       <c r="J2" t="n">
-        <v>297811.3401652374</v>
+        <v>297811.3401652375</v>
       </c>
       <c r="K2" t="n">
         <v>297811.3401652375</v>
       </c>
       <c r="L2" t="n">
-        <v>297811.3401652376</v>
+        <v>297811.3401652375</v>
       </c>
       <c r="M2" t="n">
-        <v>305041.4295996078</v>
+        <v>305041.4295996077</v>
       </c>
       <c r="N2" t="n">
         <v>306732.3855712108</v>
       </c>
       <c r="O2" t="n">
-        <v>306732.3855712108</v>
+        <v>306732.3855712109</v>
       </c>
       <c r="P2" t="n">
-        <v>306732.3855712108</v>
+        <v>306732.3855712109</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26363,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>516866.4660542444</v>
+        <v>516866.4660542434</v>
       </c>
       <c r="C3" t="n">
-        <v>69480.59699632158</v>
+        <v>69480.59699632249</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26375,10 +26375,10 @@
         <v>718282.5382932421</v>
       </c>
       <c r="F3" t="n">
-        <v>8727.76411813788</v>
+        <v>8727.764118137815</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>160000.3498856398</v>
+        <v>160000.3498856396</v>
       </c>
       <c r="K3" t="n">
-        <v>16154.47335995442</v>
+        <v>16154.4733599546</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>116551.5525565229</v>
+        <v>116551.552556523</v>
       </c>
       <c r="N3" t="n">
-        <v>6304.620544438217</v>
+        <v>6304.620544438159</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>229437.9946812401</v>
+        <v>229437.9946812404</v>
       </c>
       <c r="C4" t="n">
         <v>209922.4154630333</v>
@@ -26424,19 +26424,19 @@
         <v>209922.4154630333</v>
       </c>
       <c r="E4" t="n">
-        <v>26627.29828386334</v>
+        <v>26627.29828386335</v>
       </c>
       <c r="F4" t="n">
-        <v>28561.83935289575</v>
+        <v>28561.83935289577</v>
       </c>
       <c r="G4" t="n">
         <v>28561.83935289575</v>
       </c>
       <c r="H4" t="n">
-        <v>28561.83935289576</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="I4" t="n">
-        <v>28561.83935289576</v>
+        <v>28561.83935289579</v>
       </c>
       <c r="J4" t="n">
         <v>28561.83935289577</v>
@@ -26445,19 +26445,19 @@
         <v>28561.83935289577</v>
       </c>
       <c r="L4" t="n">
-        <v>28561.83935289572</v>
+        <v>28561.83935289577</v>
       </c>
       <c r="M4" t="n">
-        <v>54341.74760487732</v>
+        <v>54341.7476048774</v>
       </c>
       <c r="N4" t="n">
-        <v>60371.09069970023</v>
+        <v>60371.09069970026</v>
       </c>
       <c r="O4" t="n">
-        <v>60371.09069970023</v>
+        <v>60371.09069970025</v>
       </c>
       <c r="P4" t="n">
-        <v>60371.09069970017</v>
+        <v>60371.09069970024</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>77864.87557695639</v>
+        <v>77864.87557695631</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26476,10 +26476,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>94531.51160027634</v>
+        <v>94531.51160027635</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371366</v>
@@ -26488,16 +26488,16 @@
         <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
         <v>91297.61982697053</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-516278.6726133347</v>
+        <v>-516278.672613334</v>
       </c>
       <c r="C6" t="n">
-        <v>-54371.42682365797</v>
+        <v>-54371.42682365901</v>
       </c>
       <c r="D6" t="n">
-        <v>15109.17017266361</v>
+        <v>15109.17017266355</v>
       </c>
       <c r="E6" t="n">
-        <v>-545158.6253231094</v>
+        <v>-545249.3449287417</v>
       </c>
       <c r="F6" t="n">
-        <v>164138.2184404903</v>
+        <v>164071.0229502645</v>
       </c>
       <c r="G6" t="n">
-        <v>172865.9825586282</v>
+        <v>172798.7870684022</v>
       </c>
       <c r="H6" t="n">
-        <v>172865.9825586282</v>
+        <v>172798.7870684024</v>
       </c>
       <c r="I6" t="n">
-        <v>172865.9825586282</v>
+        <v>172798.7870684025</v>
       </c>
       <c r="J6" t="n">
-        <v>12865.63267298814</v>
+        <v>12798.43718276261</v>
       </c>
       <c r="K6" t="n">
-        <v>156711.5091986737</v>
+        <v>156644.3137084477</v>
       </c>
       <c r="L6" t="n">
-        <v>172865.982558628</v>
+        <v>172798.7870684022</v>
       </c>
       <c r="M6" t="n">
-        <v>42850.50961123695</v>
+        <v>42831.51471724015</v>
       </c>
       <c r="N6" t="n">
-        <v>149948.5322228512</v>
+        <v>149940.8103686653</v>
       </c>
       <c r="O6" t="n">
-        <v>156253.1527672893</v>
+        <v>156245.4309131035</v>
       </c>
       <c r="P6" t="n">
-        <v>156253.1527672894</v>
+        <v>156245.4309131035</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>33.69615409237819</v>
+        <v>33.69615409237826</v>
       </c>
       <c r="N2" t="n">
         <v>41.57692977292596</v>
       </c>
       <c r="O2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="P2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>323.7111694891885</v>
+        <v>323.7111694891879</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>611.5192776659882</v>
+        <v>611.5192776659873</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1164.052294857606</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>33.69615409237819</v>
+        <v>33.69615409237826</v>
       </c>
       <c r="N2" t="n">
-        <v>7.880775680547771</v>
+        <v>7.8807756805477</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>323.7111694891885</v>
+        <v>323.7111694891879</v>
       </c>
       <c r="C3" t="n">
-        <v>54.0324947278981</v>
+        <v>54.03249472789878</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26972,7 +26972,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26987,7 +26987,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>611.5192776659882</v>
+        <v>611.5192776659873</v>
       </c>
       <c r="C4" t="n">
-        <v>62.76799508856743</v>
+        <v>62.76799508856834</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>489.7650221030503</v>
+        <v>489.7650221030505</v>
       </c>
       <c r="F4" t="n">
-        <v>30.46063574732443</v>
+        <v>30.4606357473242</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>611.5192776659882</v>
+        <v>611.5192776659875</v>
       </c>
       <c r="K4" t="n">
-        <v>62.76799508856743</v>
+        <v>62.76799508856811</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>359.5232391238519</v>
+        <v>359.5232391238518</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>611.5192776659882</v>
+        <v>611.5192776659873</v>
       </c>
       <c r="K4" t="n">
-        <v>62.76799508856743</v>
+        <v>62.76799508856834</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>489.7650221030503</v>
+        <v>489.7650221030505</v>
       </c>
       <c r="N4" t="n">
-        <v>30.46063574732443</v>
+        <v>30.4606357473242</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>109.4526884800507</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.961831230794417</v>
       </c>
       <c r="I2" t="n">
-        <v>160.3055383674634</v>
+        <v>160.3055383674635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>68.12310085401303</v>
+        <v>68.1231008540132</v>
       </c>
       <c r="S2" t="n">
-        <v>179.3655237581654</v>
+        <v>179.3655237581655</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.3991836568392</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2415447930259</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>25.88031617537996</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27512,10 +27512,10 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>92.14771967493439</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>32.78209483530864</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.4072379052815</v>
@@ -27558,7 +27558,7 @@
         <v>137.8957774080741</v>
       </c>
       <c r="J4" t="n">
-        <v>52.08865937704296</v>
+        <v>52.08865937704304</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,28 +27579,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>37.28165665882692</v>
+        <v>37.28165665882702</v>
       </c>
       <c r="R4" t="n">
         <v>151.0462529461281</v>
       </c>
       <c r="S4" t="n">
-        <v>213.8435765302382</v>
+        <v>213.8435765302383</v>
       </c>
       <c r="T4" t="n">
         <v>225.4514214010697</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2871889135903</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>176.6141185921149</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27619,19 +27619,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>180.3750110538634</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>189.4483625703665</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,31 +27771,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>122.150403162552</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>194.6914405449009</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>137.8643268198074</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27904,19 +27904,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>284.5939820565378</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,16 +28023,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>93.25999553952106</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28062,7 +28062,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>174.65505186583</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-1.891290521132624e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28725,7 +28725,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>2.910383045673371e-12</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>33.69615409237819</v>
+        <v>33.69615409237826</v>
       </c>
       <c r="C35" t="n">
-        <v>33.69615409237819</v>
+        <v>33.69615409237826</v>
       </c>
       <c r="D35" t="n">
-        <v>33.69615409237819</v>
+        <v>33.69615409237826</v>
       </c>
       <c r="E35" t="n">
-        <v>33.69615409237819</v>
+        <v>33.69615409237826</v>
       </c>
       <c r="F35" t="n">
-        <v>33.69615409237819</v>
+        <v>33.69615409237826</v>
       </c>
       <c r="G35" t="n">
-        <v>33.69615409237819</v>
+        <v>33.69615409237826</v>
       </c>
       <c r="H35" t="n">
-        <v>33.69615409237819</v>
+        <v>33.69615409237826</v>
       </c>
       <c r="I35" t="n">
-        <v>33.69615409237819</v>
+        <v>33.69615409237826</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>33.69615409237819</v>
+        <v>33.69615409237826</v>
       </c>
       <c r="T35" t="n">
-        <v>33.69615409237819</v>
+        <v>33.69615409237826</v>
       </c>
       <c r="U35" t="n">
-        <v>33.69615409237819</v>
+        <v>33.69615409237826</v>
       </c>
       <c r="V35" t="n">
-        <v>33.69615409237819</v>
+        <v>33.69615409237826</v>
       </c>
       <c r="W35" t="n">
-        <v>33.69615409237819</v>
+        <v>33.69615409237826</v>
       </c>
       <c r="X35" t="n">
-        <v>33.69615409237819</v>
+        <v>33.69615409237826</v>
       </c>
       <c r="Y35" t="n">
-        <v>33.69615409237819</v>
+        <v>33.69615409237826</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>33.69615409237819</v>
+        <v>33.69615409237826</v>
       </c>
       <c r="C37" t="n">
-        <v>33.69615409237819</v>
+        <v>33.69615409237826</v>
       </c>
       <c r="D37" t="n">
-        <v>33.69615409237819</v>
+        <v>33.69615409237826</v>
       </c>
       <c r="E37" t="n">
-        <v>33.69615409237819</v>
+        <v>33.69615409237826</v>
       </c>
       <c r="F37" t="n">
-        <v>33.69615409237819</v>
+        <v>33.69615409237826</v>
       </c>
       <c r="G37" t="n">
-        <v>33.69615409237819</v>
+        <v>33.69615409237826</v>
       </c>
       <c r="H37" t="n">
-        <v>33.69615409237819</v>
+        <v>33.69615409237826</v>
       </c>
       <c r="I37" t="n">
-        <v>33.69615409237819</v>
+        <v>33.69615409237826</v>
       </c>
       <c r="J37" t="n">
-        <v>33.69615409237819</v>
+        <v>33.69615409237826</v>
       </c>
       <c r="K37" t="n">
-        <v>33.69615409237819</v>
+        <v>33.69615409237826</v>
       </c>
       <c r="L37" t="n">
-        <v>33.69615409237819</v>
+        <v>33.69615409237826</v>
       </c>
       <c r="M37" t="n">
-        <v>33.69615409237819</v>
+        <v>33.69615409237826</v>
       </c>
       <c r="N37" t="n">
-        <v>33.69615409237819</v>
+        <v>33.69615409237826</v>
       </c>
       <c r="O37" t="n">
-        <v>33.69615409237819</v>
+        <v>33.69615409237826</v>
       </c>
       <c r="P37" t="n">
-        <v>33.69615409237819</v>
+        <v>33.69615409237826</v>
       </c>
       <c r="Q37" t="n">
-        <v>33.69615409237819</v>
+        <v>33.69615409237826</v>
       </c>
       <c r="R37" t="n">
-        <v>33.69615409237819</v>
+        <v>33.69615409237826</v>
       </c>
       <c r="S37" t="n">
-        <v>33.69615409237819</v>
+        <v>33.69615409237826</v>
       </c>
       <c r="T37" t="n">
-        <v>33.69615409237819</v>
+        <v>33.69615409237826</v>
       </c>
       <c r="U37" t="n">
-        <v>33.69615409237819</v>
+        <v>33.69615409237826</v>
       </c>
       <c r="V37" t="n">
-        <v>33.69615409237819</v>
+        <v>33.69615409237826</v>
       </c>
       <c r="W37" t="n">
-        <v>33.69615409237819</v>
+        <v>33.69615409237826</v>
       </c>
       <c r="X37" t="n">
-        <v>33.69615409237819</v>
+        <v>33.69615409237826</v>
       </c>
       <c r="Y37" t="n">
-        <v>33.69615409237819</v>
+        <v>33.69615409237826</v>
       </c>
     </row>
     <row r="38">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="C41" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="D41" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="E41" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="F41" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="G41" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="H41" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292727</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="T41" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="U41" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="V41" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292572</v>
       </c>
       <c r="W41" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="X41" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="Y41" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292596</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="C43" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="D43" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="E43" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="F43" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="G43" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="H43" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="I43" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="J43" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="K43" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="L43" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="M43" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="N43" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="O43" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="P43" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="Q43" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="R43" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="S43" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="T43" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="U43" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="V43" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="W43" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="X43" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="Y43" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292596</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="C44" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="D44" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="E44" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="F44" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="G44" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="H44" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="T44" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="U44" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="V44" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="W44" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="X44" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="Y44" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="C46" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="D46" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="E46" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="F46" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="G46" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="H46" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="I46" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J46" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="K46" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="L46" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="M46" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="N46" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="O46" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="P46" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="Q46" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="R46" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="S46" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="T46" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="U46" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="V46" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="W46" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="X46" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="Y46" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.301351435132415</v>
+        <v>1.301351435132412</v>
       </c>
       <c r="H2" t="n">
-        <v>13.32746538504985</v>
+        <v>13.32746538504982</v>
       </c>
       <c r="I2" t="n">
-        <v>50.17035120294248</v>
+        <v>50.17035120294238</v>
       </c>
       <c r="J2" t="n">
-        <v>110.4505763675699</v>
+        <v>110.4505763675697</v>
       </c>
       <c r="K2" t="n">
-        <v>165.5367826167251</v>
+        <v>165.5367826167247</v>
       </c>
       <c r="L2" t="n">
-        <v>205.3630165996588</v>
+        <v>205.3630165996584</v>
       </c>
       <c r="M2" t="n">
-        <v>228.5059251841949</v>
+        <v>228.5059251841944</v>
       </c>
       <c r="N2" t="n">
-        <v>232.2033899492649</v>
+        <v>232.2033899492644</v>
       </c>
       <c r="O2" t="n">
-        <v>219.2630766161669</v>
+        <v>219.2630766161664</v>
       </c>
       <c r="P2" t="n">
-        <v>187.1359630613354</v>
+        <v>187.135963061335</v>
       </c>
       <c r="Q2" t="n">
-        <v>140.5313147906557</v>
+        <v>140.5313147906554</v>
       </c>
       <c r="R2" t="n">
-        <v>81.74601708713665</v>
+        <v>81.74601708713648</v>
       </c>
       <c r="S2" t="n">
-        <v>29.65454582807994</v>
+        <v>29.65454582807988</v>
       </c>
       <c r="T2" t="n">
-        <v>5.69666590729215</v>
+        <v>5.696665907292139</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1041081148105932</v>
+        <v>0.104108114810593</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6962844022974999</v>
+        <v>0.6962844022974984</v>
       </c>
       <c r="H3" t="n">
-        <v>6.724641464294276</v>
+        <v>6.724641464294262</v>
       </c>
       <c r="I3" t="n">
-        <v>23.97294981594463</v>
+        <v>23.97294981594458</v>
       </c>
       <c r="J3" t="n">
-        <v>65.78360662232652</v>
+        <v>65.78360662232639</v>
       </c>
       <c r="K3" t="n">
-        <v>112.434661576259</v>
+        <v>112.4346615762588</v>
       </c>
       <c r="L3" t="n">
-        <v>151.1822777883234</v>
+        <v>151.1822777883231</v>
       </c>
       <c r="M3" t="n">
-        <v>176.4225873716077</v>
+        <v>176.4225873716074</v>
       </c>
       <c r="N3" t="n">
-        <v>181.0919682975414</v>
+        <v>181.0919682975411</v>
       </c>
       <c r="O3" t="n">
-        <v>165.6637718045284</v>
+        <v>165.663771804528</v>
       </c>
       <c r="P3" t="n">
-        <v>132.959782049248</v>
+        <v>132.9597820492478</v>
       </c>
       <c r="Q3" t="n">
-        <v>88.88009317748438</v>
+        <v>88.8800931774842</v>
       </c>
       <c r="R3" t="n">
-        <v>43.23071052159391</v>
+        <v>43.23071052159382</v>
       </c>
       <c r="S3" t="n">
-        <v>12.93317738478031</v>
+        <v>12.93317738478028</v>
       </c>
       <c r="T3" t="n">
-        <v>2.806514761892115</v>
+        <v>2.806514761892109</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04580818436167764</v>
+        <v>0.04580818436167754</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5837414531772251</v>
+        <v>0.5837414531772239</v>
       </c>
       <c r="H4" t="n">
-        <v>5.189992192793879</v>
+        <v>5.189992192793867</v>
       </c>
       <c r="I4" t="n">
-        <v>17.5546975191842</v>
+        <v>17.55469751918416</v>
       </c>
       <c r="J4" t="n">
-        <v>41.27052073962982</v>
+        <v>41.27052073962973</v>
       </c>
       <c r="K4" t="n">
-        <v>67.82014337822669</v>
+        <v>67.82014337822655</v>
       </c>
       <c r="L4" t="n">
-        <v>86.78643386600311</v>
+        <v>86.78643386600292</v>
       </c>
       <c r="M4" t="n">
-        <v>91.50412615577174</v>
+        <v>91.50412615577156</v>
       </c>
       <c r="N4" t="n">
-        <v>89.3283625575658</v>
+        <v>89.32836255756561</v>
       </c>
       <c r="O4" t="n">
-        <v>82.50920103635909</v>
+        <v>82.50920103635892</v>
       </c>
       <c r="P4" t="n">
-        <v>70.60087539154364</v>
+        <v>70.6008753915435</v>
       </c>
       <c r="Q4" t="n">
-        <v>48.88038659286747</v>
+        <v>48.88038659286737</v>
       </c>
       <c r="R4" t="n">
-        <v>26.24713843104141</v>
+        <v>26.24713843104135</v>
       </c>
       <c r="S4" t="n">
-        <v>10.173021506734</v>
+        <v>10.17302150673398</v>
       </c>
       <c r="T4" t="n">
-        <v>2.49416802721178</v>
+        <v>2.494168027211774</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03184044290057596</v>
+        <v>0.03184044290057589</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138801</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32552,7 +32552,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L21" t="n">
         <v>508.9565619138796</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33023,10 +33023,10 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
         <v>508.9565619138795</v>
@@ -33263,7 +33263,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138795</v>
@@ -33281,7 +33281,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>98.50128701295741</v>
+        <v>98.50128701295718</v>
       </c>
       <c r="K2" t="n">
-        <v>269.5923441429093</v>
+        <v>269.5923441429089</v>
       </c>
       <c r="L2" t="n">
-        <v>387.257816180122</v>
+        <v>387.2578161801216</v>
       </c>
       <c r="M2" t="n">
-        <v>447.6732254497546</v>
+        <v>447.6732254497541</v>
       </c>
       <c r="N2" t="n">
-        <v>440.1372507646581</v>
+        <v>440.1372507646577</v>
       </c>
       <c r="O2" t="n">
-        <v>369.9650464572255</v>
+        <v>369.9650464572251</v>
       </c>
       <c r="P2" t="n">
-        <v>277.7016754775485</v>
+        <v>277.7016754775481</v>
       </c>
       <c r="Q2" t="n">
-        <v>130.5406155761109</v>
+        <v>130.5406155761106</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>35.37832046588013</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>239.0584596144786</v>
+        <v>239.0584596144784</v>
       </c>
       <c r="L3" t="n">
-        <v>383.4682433119084</v>
+        <v>383.4682433119081</v>
       </c>
       <c r="M3" t="n">
-        <v>499.9936171995893</v>
+        <v>499.9936171995889</v>
       </c>
       <c r="N3" t="n">
-        <v>529.0926305577616</v>
+        <v>529.0926305577613</v>
       </c>
       <c r="O3" t="n">
-        <v>416.9298466368135</v>
+        <v>416.9298466368131</v>
       </c>
       <c r="P3" t="n">
-        <v>317.4481432748549</v>
+        <v>317.4481432748547</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>35.37832046587818</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>45.55065155234384</v>
+        <v>45.55065155234369</v>
       </c>
       <c r="L4" t="n">
-        <v>114.3764591263192</v>
+        <v>114.3764591263191</v>
       </c>
       <c r="M4" t="n">
-        <v>131.0880031176123</v>
+        <v>131.0880031176121</v>
       </c>
       <c r="N4" t="n">
-        <v>133.4605349367944</v>
+        <v>133.4605349367942</v>
       </c>
       <c r="O4" t="n">
-        <v>107.0943289503988</v>
+        <v>107.0943289503986</v>
       </c>
       <c r="P4" t="n">
-        <v>67.87943465643713</v>
+        <v>67.87943465643698</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,7 +35021,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35255,7 +35255,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35413,7 +35413,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>679.6808878081869</v>
       </c>
       <c r="M11" t="n">
         <v>538.9211158302268</v>
@@ -35422,7 +35422,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>732.1437743040732</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
         <v>720.5606943908545</v>
@@ -35647,25 +35647,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>852.7555845359029</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R14" t="n">
         <v>125.3296184152072</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.402182134006</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35817,13 +35817,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>674.9245771183485</v>
       </c>
       <c r="M17" t="n">
-        <v>740.8875257003393</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>568.6923583622648</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>641.3060585282446</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L21" t="n">
         <v>370.4021821340054</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O23" t="n">
-        <v>641.3060585282446</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,7 +36598,7 @@
         <v>661.3366991265651</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302265</v>
@@ -36607,16 +36607,16 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>852.7555845359043</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
         <v>720.5606943908542</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636241</v>
+        <v>455.8670844338417</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597766</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
         <v>370.4021821340053</v>
@@ -36832,22 +36832,22 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
-        <v>470.4443441954267</v>
+        <v>654.7059126660156</v>
       </c>
       <c r="L29" t="n">
         <v>873.2513289427824</v>
       </c>
       <c r="M29" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q29" t="n">
         <v>250.7943048037194</v>
@@ -36911,7 +36911,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340053</v>
@@ -36929,7 +36929,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>684.4630967757939</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37239,13 +37239,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>659.4310602913149</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>301.1686926377024</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>79.27457070544445</v>
+        <v>79.27457070544446</v>
       </c>
       <c r="K37" t="n">
         <v>239.7438136366978</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>369.722634887411</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>903.0322736266976</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.15534638599219</v>
+        <v>87.15534638599216</v>
       </c>
       <c r="K40" t="n">
         <v>247.6245893172455</v>
@@ -37707,7 +37707,7 @@
         <v>361.334301943124</v>
       </c>
       <c r="M40" t="n">
-        <v>389.2103091664098</v>
+        <v>389.2103091664097</v>
       </c>
       <c r="N40" t="n">
         <v>386.433875940466</v>
@@ -37716,7 +37716,7 @@
         <v>343.9300599955657</v>
       </c>
       <c r="P40" t="n">
-        <v>276.5340009180364</v>
+        <v>276.5340009180363</v>
       </c>
       <c r="Q40" t="n">
         <v>119.9711683108196</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.320604680604631e-12</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>604.5356699324668</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>903.0322736266976</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.15534638599215</v>
+        <v>87.15534638599216</v>
       </c>
       <c r="K43" t="n">
         <v>247.6245893172455</v>
@@ -38014,13 +38014,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>604.5356699324668</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>485.7747583246602</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302268</v>
@@ -38032,13 +38032,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38172,25 +38172,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.15534638599215</v>
+        <v>87.1553463859922</v>
       </c>
       <c r="K46" t="n">
-        <v>247.6245893172455</v>
+        <v>247.6245893172456</v>
       </c>
       <c r="L46" t="n">
-        <v>361.334301943124</v>
+        <v>361.3343019431241</v>
       </c>
       <c r="M46" t="n">
-        <v>389.2103091664097</v>
+        <v>389.2103091664098</v>
       </c>
       <c r="N46" t="n">
-        <v>386.433875940466</v>
+        <v>386.4338759404661</v>
       </c>
       <c r="O46" t="n">
-        <v>343.9300599955657</v>
+        <v>343.9300599955658</v>
       </c>
       <c r="P46" t="n">
-        <v>276.5340009180363</v>
+        <v>276.5340009180364</v>
       </c>
       <c r="Q46" t="n">
         <v>119.9711683108196</v>
